--- a/trunk/docs/demo/set-datos/EstadosFinancieros.xlsx
+++ b/trunk/docs/demo/set-datos/EstadosFinancieros.xlsx
@@ -7257,7 +7257,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7293,7 +7293,7 @@
         <v>1394</v>
       </c>
       <c r="D2" s="48">
-        <v>2012264937</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7307,7 +7307,7 @@
         <v>1396</v>
       </c>
       <c r="D3" s="49">
-        <v>1720896396</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="50">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
